--- a/pitt2pitt_study2.xlsx
+++ b/pitt2pitt_study2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/alghwiri_pitt_edu/Documents/My_Projects/pitt2pitt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{71D36B48-9E9F-0A42-81E9-160A4EBDC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{767573BB-322A-E142-A302-A39DCFD712D2}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{71D36B48-9E9F-0A42-81E9-160A4EBDC280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{866254D5-1CD7-DA47-9735-EE972DCCF302}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="1" xr2:uid="{C0F78F8E-B8C6-4953-9AFF-13904FA2C775}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{C0F78F8E-B8C6-4953-9AFF-13904FA2C775}"/>
   </bookViews>
   <sheets>
     <sheet name="Study 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2891" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="335">
   <si>
     <t>P2P Applications</t>
   </si>
@@ -428,22 +428,7 @@
     <t>MA Applied Statistics</t>
   </si>
   <si>
-    <t>Haoting He-4215658</t>
-  </si>
-  <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>Makaylia Gerver-4198716</t>
-  </si>
-  <si>
-    <t>Magdalena Burdette-4225720</t>
-  </si>
-  <si>
-    <t>Daniel Meyers-4181935</t>
-  </si>
-  <si>
-    <t>Jackson Hardin-4179146</t>
   </si>
   <si>
     <t xml:space="preserve">MS in Quantitative Economics </t>
@@ -1800,7 +1785,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1844,7 +1829,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1888,7 +1873,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>17</v>
@@ -1932,7 +1917,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -1976,7 +1961,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
@@ -2020,7 +2005,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>20</v>
@@ -2064,7 +2049,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
@@ -2108,7 +2093,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
@@ -2152,7 +2137,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>23</v>
@@ -2196,7 +2181,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -2240,7 +2225,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>25</v>
@@ -2284,7 +2269,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>26</v>
@@ -2328,7 +2313,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>27</v>
@@ -2372,7 +2357,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>65</v>
@@ -2416,7 +2401,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>66</v>
@@ -2460,7 +2445,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>67</v>
@@ -2504,7 +2489,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>68</v>
@@ -2548,7 +2533,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>69</v>
@@ -2592,7 +2577,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>70</v>
@@ -2636,7 +2621,7 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>71</v>
@@ -2680,7 +2665,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>72</v>
@@ -2727,7 +2712,7 @@
         <v>128</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C24" s="3">
         <v>35</v>
@@ -2768,10 +2753,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>91</v>
@@ -2812,10 +2797,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>91</v>
@@ -2856,10 +2841,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>91</v>
@@ -2900,10 +2885,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>91</v>
@@ -2944,10 +2929,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>91</v>
@@ -2988,10 +2973,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C30" s="3">
         <v>1</v>
@@ -3504,7 +3489,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>127</v>
@@ -3530,7 +3515,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>127</v>
@@ -3600,10 +3585,10 @@
     </row>
     <row r="45" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C45" s="37">
         <v>11</v>
@@ -3644,10 +3629,10 @@
     </row>
     <row r="46" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C46" s="37">
         <v>1</v>
@@ -3688,10 +3673,10 @@
     </row>
     <row r="47" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C47" s="37">
         <v>2</v>
@@ -3732,10 +3717,10 @@
     </row>
     <row r="48" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J48" s="37">
         <v>1</v>
@@ -3758,10 +3743,10 @@
     </row>
     <row r="49" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="J49" s="37">
         <v>1</v>
@@ -3784,10 +3769,10 @@
     </row>
     <row r="50" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="J50" s="37">
         <v>1</v>
@@ -3810,10 +3795,10 @@
     </row>
     <row r="51" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="J51" s="37">
         <v>3</v>
@@ -3836,10 +3821,10 @@
     </row>
     <row r="52" spans="1:15" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J52" s="37">
         <v>1</v>
@@ -3874,8 +3859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084820D5-27FE-4AD1-A4D9-A858C21BB013}">
   <dimension ref="A1:K440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A440" sqref="A440:XFD440"/>
+    <sheetView tabSelected="1" topLeftCell="A422" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3914,7 +3899,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>86</v>
@@ -3931,7 +3916,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
@@ -3951,7 +3936,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
@@ -3971,7 +3956,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -3991,7 +3976,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>15</v>
@@ -4011,7 +3996,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
@@ -4028,7 +4013,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
@@ -4045,7 +4030,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>15</v>
@@ -4062,7 +4047,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -4082,7 +4067,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>16</v>
@@ -4102,7 +4087,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
@@ -4122,7 +4107,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
@@ -4142,7 +4127,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>16</v>
@@ -4162,7 +4147,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>16</v>
@@ -4182,7 +4167,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>16</v>
@@ -4199,7 +4184,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>16</v>
@@ -4216,7 +4201,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>16</v>
@@ -4233,7 +4218,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>16</v>
@@ -4250,7 +4235,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>83</v>
@@ -4270,7 +4255,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>83</v>
@@ -4290,7 +4275,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>83</v>
@@ -4310,7 +4295,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>83</v>
@@ -4330,7 +4315,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>83</v>
@@ -4350,7 +4335,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>83</v>
@@ -4370,7 +4355,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>83</v>
@@ -4390,7 +4375,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>83</v>
@@ -4410,7 +4395,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>83</v>
@@ -4427,7 +4412,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>83</v>
@@ -4444,7 +4429,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>83</v>
@@ -4461,7 +4446,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>83</v>
@@ -4478,7 +4463,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>83</v>
@@ -4495,7 +4480,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>83</v>
@@ -4512,7 +4497,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>83</v>
@@ -4529,7 +4514,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>83</v>
@@ -4543,7 +4528,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>85</v>
@@ -4560,7 +4545,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>85</v>
@@ -4577,7 +4562,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>17</v>
@@ -4597,7 +4582,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>17</v>
@@ -4614,7 +4599,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>17</v>
@@ -4631,7 +4616,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>19</v>
@@ -4651,7 +4636,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>19</v>
@@ -4674,7 +4659,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>19</v>
@@ -4694,7 +4679,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>19</v>
@@ -4714,7 +4699,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>19</v>
@@ -4734,7 +4719,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>19</v>
@@ -4754,7 +4739,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>19</v>
@@ -4774,7 +4759,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>19</v>
@@ -4794,7 +4779,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>19</v>
@@ -4814,7 +4799,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>19</v>
@@ -4834,7 +4819,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>19</v>
@@ -4851,7 +4836,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>19</v>
@@ -4868,7 +4853,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>19</v>
@@ -4885,7 +4870,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>19</v>
@@ -4902,7 +4887,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>19</v>
@@ -4919,7 +4904,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>19</v>
@@ -4936,7 +4921,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>19</v>
@@ -4953,7 +4938,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>19</v>
@@ -4970,7 +4955,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>19</v>
@@ -4987,7 +4972,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>19</v>
@@ -5004,7 +4989,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>19</v>
@@ -5021,7 +5006,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>20</v>
@@ -5038,7 +5023,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>25</v>
@@ -5058,7 +5043,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>25</v>
@@ -5078,7 +5063,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>25</v>
@@ -5098,7 +5083,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>21</v>
@@ -5115,7 +5100,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>21</v>
@@ -5132,7 +5117,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>21</v>
@@ -5149,7 +5134,7 @@
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>22</v>
@@ -5169,7 +5154,7 @@
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>22</v>
@@ -5189,7 +5174,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>22</v>
@@ -5209,7 +5194,7 @@
     </row>
     <row r="72" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>22</v>
@@ -5229,7 +5214,7 @@
     </row>
     <row r="73" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>22</v>
@@ -5249,7 +5234,7 @@
     </row>
     <row r="74" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>22</v>
@@ -5269,7 +5254,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>22</v>
@@ -5289,7 +5274,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B76" s="5" t="s">
         <v>22</v>
@@ -5309,7 +5294,7 @@
     </row>
     <row r="77" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>22</v>
@@ -5329,7 +5314,7 @@
     </row>
     <row r="78" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>22</v>
@@ -5349,7 +5334,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>22</v>
@@ -5366,7 +5351,7 @@
     </row>
     <row r="80" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>22</v>
@@ -5383,7 +5368,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>22</v>
@@ -5400,7 +5385,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>22</v>
@@ -5417,7 +5402,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>22</v>
@@ -5434,7 +5419,7 @@
     </row>
     <row r="84" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>22</v>
@@ -5451,7 +5436,7 @@
     </row>
     <row r="85" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>24</v>
@@ -5468,7 +5453,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>26</v>
@@ -5488,7 +5473,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>26</v>
@@ -5508,7 +5493,7 @@
     </row>
     <row r="88" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>26</v>
@@ -5528,7 +5513,7 @@
     </row>
     <row r="89" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>26</v>
@@ -5545,7 +5530,7 @@
     </row>
     <row r="90" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>26</v>
@@ -5562,7 +5547,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B91" s="5" t="s">
         <v>26</v>
@@ -5579,7 +5564,7 @@
     </row>
     <row r="92" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>26</v>
@@ -5596,7 +5581,7 @@
     </row>
     <row r="93" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B93" s="5" t="s">
         <v>26</v>
@@ -5613,7 +5598,7 @@
     </row>
     <row r="94" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>27</v>
@@ -5633,7 +5618,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>27</v>
@@ -5650,7 +5635,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>27</v>
@@ -5670,16 +5655,16 @@
         <v>128</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="5">
+        <v>4215658</v>
+      </c>
+      <c r="E97" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5687,16 +5672,16 @@
         <v>128</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>132</v>
+      <c r="D98" s="5">
+        <v>4198716</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5704,16 +5689,16 @@
         <v>128</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>133</v>
+      <c r="D99" s="5">
+        <v>4225720</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5721,16 +5706,16 @@
         <v>128</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>134</v>
+      <c r="D100" s="5">
+        <v>4181935</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5738,24 +5723,24 @@
         <v>128</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>135</v>
+      <c r="D101" s="5">
+        <v>4179146</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>47</v>
@@ -5772,10 +5757,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>47</v>
@@ -5792,10 +5777,10 @@
     </row>
     <row r="104" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>90</v>
@@ -5812,10 +5797,10 @@
     </row>
     <row r="105" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>90</v>
@@ -5832,10 +5817,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>90</v>
@@ -5852,10 +5837,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>90</v>
@@ -5872,10 +5857,10 @@
     </row>
     <row r="108" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>90</v>
@@ -5892,10 +5877,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>90</v>
@@ -5912,10 +5897,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>47</v>
@@ -5929,10 +5914,10 @@
     </row>
     <row r="111" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B111" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>90</v>
@@ -5946,10 +5931,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>90</v>
@@ -5958,15 +5943,15 @@
         <v>3793892</v>
       </c>
       <c r="E112" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B113" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>90</v>
@@ -5980,10 +5965,10 @@
     </row>
     <row r="114" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>47</v>
@@ -6000,10 +5985,10 @@
     </row>
     <row r="115" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>90</v>
@@ -6020,10 +6005,10 @@
     </row>
     <row r="116" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>47</v>
@@ -6040,10 +6025,10 @@
     </row>
     <row r="117" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>47</v>
@@ -6060,10 +6045,10 @@
     </row>
     <row r="118" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>90</v>
@@ -6080,10 +6065,10 @@
     </row>
     <row r="119" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>90</v>
@@ -6100,10 +6085,10 @@
     </row>
     <row r="120" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>90</v>
@@ -6120,10 +6105,10 @@
     </row>
     <row r="121" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>90</v>
@@ -6140,10 +6125,10 @@
     </row>
     <row r="122" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>90</v>
@@ -6157,10 +6142,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>47</v>
@@ -6174,10 +6159,10 @@
     </row>
     <row r="124" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>47</v>
@@ -6194,10 +6179,10 @@
     </row>
     <row r="125" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>47</v>
@@ -6214,10 +6199,10 @@
     </row>
     <row r="126" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>47</v>
@@ -6234,10 +6219,10 @@
     </row>
     <row r="127" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>47</v>
@@ -6254,10 +6239,10 @@
     </row>
     <row r="128" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>47</v>
@@ -6274,10 +6259,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>47</v>
@@ -6294,10 +6279,10 @@
     </row>
     <row r="130" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>47</v>
@@ -6314,10 +6299,10 @@
     </row>
     <row r="131" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>47</v>
@@ -6334,10 +6319,10 @@
     </row>
     <row r="132" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>47</v>
@@ -6354,10 +6339,10 @@
     </row>
     <row r="133" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>47</v>
@@ -6374,10 +6359,10 @@
     </row>
     <row r="134" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>47</v>
@@ -6394,10 +6379,10 @@
     </row>
     <row r="135" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>47</v>
@@ -6414,10 +6399,10 @@
     </row>
     <row r="136" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>47</v>
@@ -6434,10 +6419,10 @@
     </row>
     <row r="137" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>47</v>
@@ -6454,10 +6439,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>47</v>
@@ -6474,10 +6459,10 @@
     </row>
     <row r="139" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>47</v>
@@ -6494,10 +6479,10 @@
     </row>
     <row r="140" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>47</v>
@@ -6514,10 +6499,10 @@
     </row>
     <row r="141" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>47</v>
@@ -6534,10 +6519,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>90</v>
@@ -6554,10 +6539,10 @@
     </row>
     <row r="143" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>90</v>
@@ -6574,10 +6559,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>90</v>
@@ -6594,10 +6579,10 @@
     </row>
     <row r="145" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>90</v>
@@ -6614,10 +6599,10 @@
     </row>
     <row r="146" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>90</v>
@@ -6634,10 +6619,10 @@
     </row>
     <row r="147" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>90</v>
@@ -6654,10 +6639,10 @@
     </row>
     <row r="148" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>47</v>
@@ -6671,10 +6656,10 @@
     </row>
     <row r="149" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>47</v>
@@ -6688,10 +6673,10 @@
     </row>
     <row r="150" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>47</v>
@@ -6705,10 +6690,10 @@
     </row>
     <row r="151" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>90</v>
@@ -6722,10 +6707,10 @@
     </row>
     <row r="152" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>90</v>
@@ -6739,10 +6724,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>90</v>
@@ -6756,10 +6741,10 @@
     </row>
     <row r="154" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>47</v>
@@ -6776,10 +6761,10 @@
     </row>
     <row r="155" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>47</v>
@@ -6793,10 +6778,10 @@
     </row>
     <row r="156" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>28</v>
@@ -6813,10 +6798,10 @@
     </row>
     <row r="157" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>47</v>
@@ -6830,10 +6815,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>47</v>
@@ -6847,10 +6832,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>47</v>
@@ -6864,10 +6849,10 @@
     </row>
     <row r="160" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>28</v>
@@ -6884,7 +6869,7 @@
     </row>
     <row r="161" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B161" s="5" t="s">
         <v>127</v>
@@ -6904,7 +6889,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B162" s="5" t="s">
         <v>127</v>
@@ -6924,7 +6909,7 @@
     </row>
     <row r="163" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B163" s="5" t="s">
         <v>127</v>
@@ -6944,7 +6929,7 @@
     </row>
     <row r="164" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B164" s="5" t="s">
         <v>127</v>
@@ -6964,7 +6949,7 @@
     </row>
     <row r="165" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B165" s="5" t="s">
         <v>127</v>
@@ -6984,7 +6969,7 @@
     </row>
     <row r="166" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B166" s="5" t="s">
         <v>127</v>
@@ -7004,7 +6989,7 @@
     </row>
     <row r="167" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B167" s="5" t="s">
         <v>127</v>
@@ -7024,7 +7009,7 @@
     </row>
     <row r="168" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B168" s="5" t="s">
         <v>127</v>
@@ -7044,7 +7029,7 @@
     </row>
     <row r="169" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B169" s="5" t="s">
         <v>127</v>
@@ -7064,7 +7049,7 @@
     </row>
     <row r="170" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B170" s="5" t="s">
         <v>127</v>
@@ -7084,7 +7069,7 @@
     </row>
     <row r="171" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B171" s="5" t="s">
         <v>127</v>
@@ -7104,7 +7089,7 @@
     </row>
     <row r="172" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B172" s="5" t="s">
         <v>127</v>
@@ -7124,7 +7109,7 @@
     </row>
     <row r="173" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B173" s="5" t="s">
         <v>127</v>
@@ -7144,7 +7129,7 @@
     </row>
     <row r="174" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B174" s="5" t="s">
         <v>127</v>
@@ -7164,7 +7149,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B175" s="5" t="s">
         <v>127</v>
@@ -7184,7 +7169,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B176" s="5" t="s">
         <v>127</v>
@@ -7204,7 +7189,7 @@
     </row>
     <row r="177" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B177" s="5" t="s">
         <v>127</v>
@@ -7224,7 +7209,7 @@
     </row>
     <row r="178" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B178" s="5" t="s">
         <v>127</v>
@@ -7244,7 +7229,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B179" s="5" t="s">
         <v>127</v>
@@ -7264,7 +7249,7 @@
     </row>
     <row r="180" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B180" s="5" t="s">
         <v>127</v>
@@ -7284,7 +7269,7 @@
     </row>
     <row r="181" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B181" s="5" t="s">
         <v>127</v>
@@ -7304,7 +7289,7 @@
     </row>
     <row r="182" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B182" s="5" t="s">
         <v>127</v>
@@ -7324,7 +7309,7 @@
     </row>
     <row r="183" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B183" s="5" t="s">
         <v>127</v>
@@ -7344,7 +7329,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B184" s="5" t="s">
         <v>127</v>
@@ -7364,7 +7349,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B185" s="5" t="s">
         <v>127</v>
@@ -7384,7 +7369,7 @@
     </row>
     <row r="186" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B186" s="5" t="s">
         <v>127</v>
@@ -7404,7 +7389,7 @@
     </row>
     <row r="187" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B187" s="5" t="s">
         <v>127</v>
@@ -7424,7 +7409,7 @@
     </row>
     <row r="188" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B188" s="5" t="s">
         <v>127</v>
@@ -7444,7 +7429,7 @@
     </row>
     <row r="189" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B189" s="5" t="s">
         <v>127</v>
@@ -7464,7 +7449,7 @@
     </row>
     <row r="190" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B190" s="5" t="s">
         <v>127</v>
@@ -7484,7 +7469,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B191" s="5" t="s">
         <v>127</v>
@@ -7504,7 +7489,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B192" s="5" t="s">
         <v>127</v>
@@ -7524,7 +7509,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B193" s="5" t="s">
         <v>127</v>
@@ -7544,7 +7529,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B194" s="5" t="s">
         <v>127</v>
@@ -7564,7 +7549,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B195" s="5" t="s">
         <v>127</v>
@@ -7584,7 +7569,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B196" s="5" t="s">
         <v>127</v>
@@ -7604,7 +7589,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B197" s="5" t="s">
         <v>127</v>
@@ -7624,7 +7609,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B198" s="5" t="s">
         <v>127</v>
@@ -7644,7 +7629,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B199" s="5" t="s">
         <v>127</v>
@@ -7664,7 +7649,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B200" s="5" t="s">
         <v>127</v>
@@ -7684,7 +7669,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B201" s="5" t="s">
         <v>127</v>
@@ -7704,7 +7689,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B202" s="5" t="s">
         <v>127</v>
@@ -7724,7 +7709,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B203" s="5" t="s">
         <v>127</v>
@@ -7744,7 +7729,7 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B204" s="5" t="s">
         <v>127</v>
@@ -7764,7 +7749,7 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B205" s="5" t="s">
         <v>127</v>
@@ -7784,7 +7769,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B206" s="5" t="s">
         <v>127</v>
@@ -7804,7 +7789,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B207" s="5" t="s">
         <v>127</v>
@@ -7824,7 +7809,7 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B208" s="5" t="s">
         <v>127</v>
@@ -7844,7 +7829,7 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B209" s="5" t="s">
         <v>127</v>
@@ -7864,7 +7849,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B210" s="5" t="s">
         <v>127</v>
@@ -7884,7 +7869,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B211" s="5" t="s">
         <v>127</v>
@@ -7904,7 +7889,7 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B212" s="5" t="s">
         <v>127</v>
@@ -7924,7 +7909,7 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B213" s="5" t="s">
         <v>127</v>
@@ -7944,7 +7929,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B214" s="5" t="s">
         <v>127</v>
@@ -7964,7 +7949,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B215" s="5" t="s">
         <v>127</v>
@@ -7984,7 +7969,7 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B216" s="5" t="s">
         <v>127</v>
@@ -8004,7 +7989,7 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B217" s="5" t="s">
         <v>127</v>
@@ -8024,7 +8009,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B218" s="5" t="s">
         <v>127</v>
@@ -8044,7 +8029,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B219" s="5" t="s">
         <v>127</v>
@@ -8064,7 +8049,7 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B220" s="5" t="s">
         <v>127</v>
@@ -8084,7 +8069,7 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B221" s="5" t="s">
         <v>127</v>
@@ -8104,7 +8089,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B222" s="5" t="s">
         <v>127</v>
@@ -8124,7 +8109,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B223" s="5" t="s">
         <v>127</v>
@@ -8144,7 +8129,7 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B224" s="5" t="s">
         <v>127</v>
@@ -8164,7 +8149,7 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B225" s="5" t="s">
         <v>127</v>
@@ -8184,7 +8169,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B226" s="5" t="s">
         <v>127</v>
@@ -8204,7 +8189,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B227" s="5" t="s">
         <v>127</v>
@@ -8224,7 +8209,7 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B228" s="5" t="s">
         <v>127</v>
@@ -8244,7 +8229,7 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B229" s="5" t="s">
         <v>127</v>
@@ -8264,7 +8249,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B230" s="5" t="s">
         <v>127</v>
@@ -8284,7 +8269,7 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B231" s="5" t="s">
         <v>127</v>
@@ -8304,7 +8289,7 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B232" s="5" t="s">
         <v>127</v>
@@ -8324,7 +8309,7 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B233" s="5" t="s">
         <v>127</v>
@@ -8344,7 +8329,7 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B234" s="5" t="s">
         <v>127</v>
@@ -8364,7 +8349,7 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B235" s="5" t="s">
         <v>79</v>
@@ -8500,7 +8485,7 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B243" s="5" t="s">
         <v>74</v>
@@ -8520,7 +8505,7 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B244" s="5" t="s">
         <v>74</v>
@@ -8540,7 +8525,7 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B245" s="5" t="s">
         <v>74</v>
@@ -8560,7 +8545,7 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B246" s="5" t="s">
         <v>74</v>
@@ -8580,7 +8565,7 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B247" s="5" t="s">
         <v>74</v>
@@ -8600,7 +8585,7 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B248" s="5" t="s">
         <v>74</v>
@@ -8620,7 +8605,7 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B249" s="5" t="s">
         <v>74</v>
@@ -8640,7 +8625,7 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B250" s="5" t="s">
         <v>74</v>
@@ -8657,7 +8642,7 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B251" s="5" t="s">
         <v>74</v>
@@ -8677,7 +8662,7 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B252" s="5" t="s">
         <v>74</v>
@@ -8697,7 +8682,7 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B253" s="5" t="s">
         <v>74</v>
@@ -8717,7 +8702,7 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B254" s="5" t="s">
         <v>74</v>
@@ -8737,7 +8722,7 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B255" s="5" t="s">
         <v>74</v>
@@ -8754,7 +8739,7 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B256" s="5" t="s">
         <v>74</v>
@@ -8771,7 +8756,7 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B257" s="5" t="s">
         <v>74</v>
@@ -8788,7 +8773,7 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B258" s="5" t="s">
         <v>74</v>
@@ -8805,7 +8790,7 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B259" s="5" t="s">
         <v>74</v>
@@ -8822,7 +8807,7 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B260" s="5" t="s">
         <v>74</v>
@@ -8839,7 +8824,7 @@
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B261" s="5" t="s">
         <v>74</v>
@@ -8856,7 +8841,7 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B262" s="5" t="s">
         <v>74</v>
@@ -8870,7 +8855,7 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B263" s="5" t="s">
         <v>74</v>
@@ -8879,12 +8864,12 @@
         <v>28</v>
       </c>
       <c r="E263" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B264" s="5" t="s">
         <v>74</v>
@@ -8898,7 +8883,7 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B265" s="5" t="s">
         <v>74</v>
@@ -8912,7 +8897,7 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B266" s="5" t="s">
         <v>74</v>
@@ -8926,7 +8911,7 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B267" s="5" t="s">
         <v>74</v>
@@ -8940,7 +8925,7 @@
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B268" s="5" t="s">
         <v>74</v>
@@ -8949,12 +8934,12 @@
         <v>47</v>
       </c>
       <c r="E268" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B269" s="5" t="s">
         <v>74</v>
@@ -8968,7 +8953,7 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B270" s="5" t="s">
         <v>74</v>
@@ -8982,7 +8967,7 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B271" s="5" t="s">
         <v>74</v>
@@ -8996,7 +8981,7 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B272" s="5" t="s">
         <v>74</v>
@@ -9016,7 +9001,7 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B273" s="5" t="s">
         <v>76</v>
@@ -9033,7 +9018,7 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B274" s="5" t="s">
         <v>76</v>
@@ -9050,7 +9035,7 @@
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B275" s="5" t="s">
         <v>76</v>
@@ -9067,7 +9052,7 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B276" s="5" t="s">
         <v>76</v>
@@ -9084,7 +9069,7 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B277" s="5" t="s">
         <v>76</v>
@@ -9325,7 +9310,7 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B291" s="5" t="s">
         <v>80</v>
@@ -9342,7 +9327,7 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B292" s="5" t="s">
         <v>80</v>
@@ -9359,7 +9344,7 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B293" s="5" t="s">
         <v>80</v>
@@ -9376,7 +9361,7 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B294" s="5" t="s">
         <v>80</v>
@@ -9385,12 +9370,12 @@
         <v>47</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B295" s="5" t="s">
         <v>80</v>
@@ -9404,7 +9389,7 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B296" s="5" t="s">
         <v>80</v>
@@ -9418,7 +9403,7 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B297" s="5" t="s">
         <v>80</v>
@@ -9427,12 +9412,12 @@
         <v>47</v>
       </c>
       <c r="E297" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B298" s="5" t="s">
         <v>80</v>
@@ -9452,7 +9437,7 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B299" s="5" t="s">
         <v>77</v>
@@ -9469,7 +9454,7 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B300" s="5" t="s">
         <v>77</v>
@@ -9486,7 +9471,7 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B301" s="5" t="s">
         <v>77</v>
@@ -9503,7 +9488,7 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B302" s="5" t="s">
         <v>77</v>
@@ -9517,7 +9502,7 @@
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B303" s="5" t="s">
         <v>77</v>
@@ -9571,7 +9556,7 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B306" s="5" t="s">
         <v>75</v>
@@ -9591,7 +9576,7 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B307" s="5" t="s">
         <v>75</v>
@@ -9608,7 +9593,7 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B308" s="5" t="s">
         <v>75</v>
@@ -9625,7 +9610,7 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B309" s="5" t="s">
         <v>75</v>
@@ -9642,7 +9627,7 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B310" s="5" t="s">
         <v>75</v>
@@ -9659,7 +9644,7 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B311" s="5" t="s">
         <v>75</v>
@@ -9676,7 +9661,7 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B312" s="5" t="s">
         <v>75</v>
@@ -9693,7 +9678,7 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B313" s="5" t="s">
         <v>75</v>
@@ -9710,7 +9695,7 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B314" s="5" t="s">
         <v>75</v>
@@ -9727,7 +9712,7 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B315" s="5" t="s">
         <v>75</v>
@@ -9744,7 +9729,7 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B316" s="5" t="s">
         <v>75</v>
@@ -9761,7 +9746,7 @@
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>75</v>
@@ -9775,7 +9760,7 @@
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>81</v>
@@ -9784,12 +9769,12 @@
         <v>47</v>
       </c>
       <c r="E318" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>81</v>
@@ -9803,7 +9788,7 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>84</v>
@@ -9823,7 +9808,7 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>84</v>
@@ -9843,7 +9828,7 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>84</v>
@@ -9860,7 +9845,7 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>84</v>
@@ -9877,7 +9862,7 @@
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>84</v>
@@ -9894,7 +9879,7 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B325" s="5" t="s">
         <v>84</v>
@@ -9908,7 +9893,7 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B326" s="5" t="s">
         <v>84</v>
@@ -9922,7 +9907,7 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B327" s="5" t="s">
         <v>84</v>
@@ -9939,7 +9924,7 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B328" s="5" t="s">
         <v>84</v>
@@ -9959,7 +9944,7 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B329" s="5" t="s">
         <v>84</v>
@@ -9979,7 +9964,7 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B330" s="5" t="s">
         <v>84</v>
@@ -9999,7 +9984,7 @@
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B331" s="5" t="s">
         <v>78</v>
@@ -10019,7 +10004,7 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B332" s="5" t="s">
         <v>78</v>
@@ -10039,7 +10024,7 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B333" s="5" t="s">
         <v>78</v>
@@ -10056,7 +10041,7 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B334" s="5" t="s">
         <v>78</v>
@@ -10073,7 +10058,7 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B335" s="5" t="s">
         <v>78</v>
@@ -10090,7 +10075,7 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B336" s="5" t="s">
         <v>78</v>
@@ -10107,7 +10092,7 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B337" s="5" t="s">
         <v>78</v>
@@ -10124,7 +10109,7 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B338" s="5" t="s">
         <v>78</v>
@@ -10138,7 +10123,7 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B339" s="5" t="s">
         <v>78</v>
@@ -10152,7 +10137,7 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B340" s="5" t="s">
         <v>78</v>
@@ -10166,7 +10151,7 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B341" s="5" t="s">
         <v>78</v>
@@ -10186,7 +10171,7 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B342" s="5" t="s">
         <v>73</v>
@@ -10206,7 +10191,7 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B343" s="5" t="s">
         <v>73</v>
@@ -10223,7 +10208,7 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B344" s="5" t="s">
         <v>73</v>
@@ -10237,7 +10222,7 @@
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B345" s="5" t="s">
         <v>73</v>
@@ -10251,7 +10236,7 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B346" s="5" t="s">
         <v>73</v>
@@ -10265,7 +10250,7 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B347" s="5" t="s">
         <v>73</v>
@@ -10285,7 +10270,7 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B348" s="5" t="s">
         <v>73</v>
@@ -10410,7 +10395,7 @@
         <v>128</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>47</v>
@@ -10430,7 +10415,7 @@
         <v>128</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>47</v>
@@ -10450,7 +10435,7 @@
         <v>128</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>47</v>
@@ -10470,7 +10455,7 @@
         <v>128</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>47</v>
@@ -10490,7 +10475,7 @@
         <v>128</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>47</v>
@@ -10510,7 +10495,7 @@
         <v>128</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>47</v>
@@ -10530,7 +10515,7 @@
         <v>128</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C361" s="5" t="s">
         <v>47</v>
@@ -10550,7 +10535,7 @@
         <v>128</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C362" s="5" t="s">
         <v>47</v>
@@ -10570,7 +10555,7 @@
         <v>128</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C363" s="5" t="s">
         <v>47</v>
@@ -10590,7 +10575,7 @@
         <v>128</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C364" s="5" t="s">
         <v>47</v>
@@ -10610,7 +10595,7 @@
         <v>128</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C365" s="5" t="s">
         <v>90</v>
@@ -10630,7 +10615,7 @@
         <v>128</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C366" s="5" t="s">
         <v>90</v>
@@ -10650,7 +10635,7 @@
         <v>128</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C367" s="5" t="s">
         <v>90</v>
@@ -10670,7 +10655,7 @@
         <v>128</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C368" s="5" t="s">
         <v>90</v>
@@ -10690,7 +10675,7 @@
         <v>128</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C369" s="5" t="s">
         <v>90</v>
@@ -10710,7 +10695,7 @@
         <v>128</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C370" s="5" t="s">
         <v>90</v>
@@ -10731,7 +10716,7 @@
         <v>128</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C371" s="5" t="s">
         <v>90</v>
@@ -10751,7 +10736,7 @@
         <v>128</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C372" s="5" t="s">
         <v>90</v>
@@ -10771,7 +10756,7 @@
         <v>128</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>90</v>
@@ -10791,7 +10776,7 @@
         <v>128</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C374" s="5" t="s">
         <v>90</v>
@@ -10811,7 +10796,7 @@
         <v>128</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C375" s="5" t="s">
         <v>90</v>
@@ -10831,7 +10816,7 @@
         <v>128</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>90</v>
@@ -10851,7 +10836,7 @@
         <v>128</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C377" s="5" t="s">
         <v>90</v>
@@ -10871,7 +10856,7 @@
         <v>128</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C378" s="5" t="s">
         <v>90</v>
@@ -10891,7 +10876,7 @@
         <v>128</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>90</v>
@@ -10911,7 +10896,7 @@
         <v>128</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>90</v>
@@ -10928,7 +10913,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B381" s="5" t="s">
         <v>87</v>
@@ -10942,7 +10927,7 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B382" s="5" t="s">
         <v>87</v>
@@ -10962,7 +10947,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B383" s="5" t="s">
         <v>88</v>
@@ -10979,7 +10964,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B384" s="5" t="s">
         <v>82</v>
@@ -10988,12 +10973,12 @@
         <v>28</v>
       </c>
       <c r="E384" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B385" s="5" t="s">
         <v>82</v>
@@ -11007,7 +10992,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A386" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B386" s="5" t="s">
         <v>82</v>
@@ -11021,7 +11006,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A387" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B387" s="5" t="s">
         <v>82</v>
@@ -11030,12 +11015,12 @@
         <v>28</v>
       </c>
       <c r="E387" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A388" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B388" s="5" t="s">
         <v>82</v>
@@ -11044,12 +11029,12 @@
         <v>28</v>
       </c>
       <c r="E388" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B389" s="5" t="s">
         <v>82</v>
@@ -11250,7 +11235,7 @@
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B401" s="5" t="s">
         <v>23</v>
@@ -11270,7 +11255,7 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B402" s="5" t="s">
         <v>23</v>
@@ -11287,7 +11272,7 @@
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B403" s="5" t="s">
         <v>23</v>
@@ -11304,7 +11289,7 @@
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B404" s="5" t="s">
         <v>92</v>
@@ -11321,7 +11306,7 @@
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B405" s="5" t="s">
         <v>89</v>
@@ -11338,7 +11323,7 @@
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B406" s="5" t="s">
         <v>89</v>
@@ -11355,10 +11340,10 @@
     </row>
     <row r="407" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A407" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B407" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C407" s="38" t="s">
         <v>28</v>
@@ -11375,10 +11360,10 @@
     </row>
     <row r="408" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A408" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B408" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C408" s="38" t="s">
         <v>28</v>
@@ -11395,10 +11380,10 @@
     </row>
     <row r="409" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A409" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B409" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C409" s="38" t="s">
         <v>28</v>
@@ -11415,10 +11400,10 @@
     </row>
     <row r="410" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A410" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B410" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C410" s="38" t="s">
         <v>28</v>
@@ -11435,10 +11420,10 @@
     </row>
     <row r="411" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A411" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B411" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C411" s="38" t="s">
         <v>28</v>
@@ -11455,10 +11440,10 @@
     </row>
     <row r="412" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A412" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B412" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C412" s="38" t="s">
         <v>28</v>
@@ -11475,10 +11460,10 @@
     </row>
     <row r="413" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A413" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B413" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C413" s="38" t="s">
         <v>28</v>
@@ -11495,10 +11480,10 @@
     </row>
     <row r="414" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A414" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B414" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C414" s="38" t="s">
         <v>28</v>
@@ -11515,10 +11500,10 @@
     </row>
     <row r="415" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A415" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B415" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C415" s="38" t="s">
         <v>28</v>
@@ -11535,10 +11520,10 @@
     </row>
     <row r="416" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A416" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B416" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C416" s="38" t="s">
         <v>28</v>
@@ -11555,10 +11540,10 @@
     </row>
     <row r="417" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A417" s="38" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B417" s="38" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C417" s="38" t="s">
         <v>28</v>
@@ -11575,10 +11560,10 @@
     </row>
     <row r="418" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A418" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B418" s="37" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C418" s="37" t="s">
         <v>93</v>
@@ -11587,7 +11572,7 @@
         <v>4168530</v>
       </c>
       <c r="E418" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F418" s="37" t="s">
         <v>91</v>
@@ -11595,10 +11580,10 @@
     </row>
     <row r="419" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A419" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B419" s="37" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C419" s="37" t="s">
         <v>93</v>
@@ -11607,7 +11592,7 @@
         <v>4216629</v>
       </c>
       <c r="E419" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F419" s="37" t="s">
         <v>91</v>
@@ -11615,10 +11600,10 @@
     </row>
     <row r="420" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A420" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B420" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C420" s="37" t="s">
         <v>93</v>
@@ -11627,7 +11612,7 @@
         <v>4180573</v>
       </c>
       <c r="E420" s="37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F420" s="37" t="s">
         <v>91</v>
@@ -11635,10 +11620,10 @@
     </row>
     <row r="421" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B421" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C421" s="37" t="s">
         <v>93</v>
@@ -11647,7 +11632,7 @@
         <v>4172004</v>
       </c>
       <c r="E421" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F421" s="37" t="s">
         <v>91</v>
@@ -11655,10 +11640,10 @@
     </row>
     <row r="422" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B422" s="37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C422" s="37" t="s">
         <v>93</v>
@@ -11667,7 +11652,7 @@
         <v>4107121</v>
       </c>
       <c r="E422" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F422" s="37" t="s">
         <v>91</v>
@@ -11675,10 +11660,10 @@
     </row>
     <row r="423" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A423" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B423" s="37" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C423" s="37" t="s">
         <v>93</v>
@@ -11687,7 +11672,7 @@
         <v>4277371</v>
       </c>
       <c r="E423" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F423" s="37" t="s">
         <v>91</v>
@@ -11695,10 +11680,10 @@
     </row>
     <row r="424" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A424" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B424" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C424" s="37" t="s">
         <v>93</v>
@@ -11707,7 +11692,7 @@
         <v>4202964</v>
       </c>
       <c r="E424" s="37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F424" s="37" t="s">
         <v>91</v>
@@ -11715,10 +11700,10 @@
     </row>
     <row r="425" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B425" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C425" s="37" t="s">
         <v>93</v>
@@ -11727,7 +11712,7 @@
         <v>4230243</v>
       </c>
       <c r="E425" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F425" s="37" t="s">
         <v>91</v>
@@ -11735,10 +11720,10 @@
     </row>
     <row r="426" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A426" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B426" s="37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C426" s="37" t="s">
         <v>93</v>
@@ -11747,7 +11732,7 @@
         <v>4189037</v>
       </c>
       <c r="E426" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F426" s="37" t="s">
         <v>91</v>
@@ -11755,10 +11740,10 @@
     </row>
     <row r="427" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B427" s="37" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C427" s="37" t="s">
         <v>93</v>
@@ -11767,7 +11752,7 @@
         <v>4109621</v>
       </c>
       <c r="E427" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F427" s="37" t="s">
         <v>91</v>
@@ -11775,10 +11760,10 @@
     </row>
     <row r="428" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A428" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B428" s="37" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C428" s="37" t="s">
         <v>93</v>
@@ -11787,7 +11772,7 @@
         <v>4040819</v>
       </c>
       <c r="E428" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F428" s="37" t="s">
         <v>91</v>
@@ -11795,10 +11780,10 @@
     </row>
     <row r="429" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A429" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B429" s="37" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C429" s="37" t="s">
         <v>93</v>
@@ -11807,7 +11792,7 @@
         <v>4130951</v>
       </c>
       <c r="E429" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F429" s="37" t="s">
         <v>91</v>
@@ -11815,10 +11800,10 @@
     </row>
     <row r="430" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A430" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B430" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C430" s="37" t="s">
         <v>93</v>
@@ -11827,7 +11812,7 @@
         <v>4081105</v>
       </c>
       <c r="E430" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F430" s="37" t="s">
         <v>91</v>
@@ -11835,10 +11820,10 @@
     </row>
     <row r="431" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A431" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B431" s="37" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C431" s="37" t="s">
         <v>93</v>
@@ -11847,7 +11832,7 @@
         <v>4118951</v>
       </c>
       <c r="E431" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F431" s="37" t="s">
         <v>91</v>
@@ -11855,10 +11840,10 @@
     </row>
     <row r="432" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A432" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B432" s="37" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C432" s="37" t="s">
         <v>93</v>
@@ -11867,7 +11852,7 @@
         <v>4185209</v>
       </c>
       <c r="E432" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F432" s="37" t="s">
         <v>91</v>
@@ -11875,10 +11860,10 @@
     </row>
     <row r="433" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A433" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B433" s="37" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C433" s="37" t="s">
         <v>93</v>
@@ -11887,7 +11872,7 @@
         <v>4179561</v>
       </c>
       <c r="E433" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F433" s="37" t="s">
         <v>91</v>
@@ -11895,10 +11880,10 @@
     </row>
     <row r="434" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A434" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B434" s="37" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C434" s="37" t="s">
         <v>93</v>
@@ -11907,7 +11892,7 @@
         <v>4177024</v>
       </c>
       <c r="E434" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F434" s="37" t="s">
         <v>91</v>
@@ -11915,10 +11900,10 @@
     </row>
     <row r="435" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B435" s="37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C435" s="37" t="s">
         <v>93</v>
@@ -11927,7 +11912,7 @@
         <v>4175894</v>
       </c>
       <c r="E435" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F435" s="37" t="s">
         <v>91</v>
@@ -11935,10 +11920,10 @@
     </row>
     <row r="436" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A436" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B436" s="37" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C436" s="37" t="s">
         <v>93</v>
@@ -11947,7 +11932,7 @@
         <v>4226378</v>
       </c>
       <c r="E436" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F436" s="37" t="s">
         <v>91</v>
@@ -11955,70 +11940,70 @@
     </row>
     <row r="437" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B437" s="37" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C437" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D437" s="42">
         <v>4095882</v>
       </c>
       <c r="E437" s="37" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F437" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="438" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A438" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B438" s="37" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C438" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D438" s="42">
         <v>4108172</v>
       </c>
       <c r="E438" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F438" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="439" spans="1:6" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="37" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B439" s="37" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C439" s="37" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D439" s="42">
         <v>4104459</v>
       </c>
       <c r="E439" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F439" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="440" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A440" s="43" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B440" s="43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C440" s="43" t="s">
         <v>47</v>
@@ -12073,79 +12058,79 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="I1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="K1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="P1" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="Q1" s="17" t="s">
         <v>166</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="P1" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>171</v>
       </c>
       <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J2" s="18">
         <v>44228</v>
@@ -12169,25 +12154,25 @@
     </row>
     <row r="3" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J3" s="18">
         <v>44228</v>
@@ -12211,25 +12196,25 @@
     </row>
     <row r="4" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J4" s="18">
         <v>44228</v>
@@ -12253,25 +12238,25 @@
     </row>
     <row r="5" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J5" s="18">
         <v>44270</v>
@@ -12297,25 +12282,25 @@
     </row>
     <row r="6" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J6" s="18">
         <v>44270</v>
@@ -12341,25 +12326,25 @@
     </row>
     <row r="7" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J7" s="18">
         <v>44270</v>
@@ -12385,25 +12370,25 @@
     </row>
     <row r="8" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J8" s="18">
         <v>44204</v>
@@ -12432,28 +12417,28 @@
         <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H9" s="20">
         <v>44166</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J9" s="20">
         <v>44317</v>
@@ -12479,29 +12464,29 @@
     </row>
     <row r="10" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H10" s="20">
         <v>44166</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J10" s="20">
         <v>44317</v>
@@ -12534,22 +12519,22 @@
         <v>115</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H11" s="20">
         <v>44166</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J11" s="20">
         <v>44317</v>
@@ -12575,29 +12560,29 @@
     </row>
     <row r="12" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H12" s="20">
         <v>44166</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J12" s="20">
         <v>44317</v>
@@ -12630,22 +12615,22 @@
         <v>115</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H13" s="20">
         <v>44166</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J13" s="20">
         <v>44317</v>
@@ -12671,29 +12656,29 @@
     </row>
     <row r="14" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H14" s="20">
         <v>44166</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J14" s="20">
         <v>44317</v>
@@ -12719,29 +12704,29 @@
     </row>
     <row r="15" spans="1:18" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H15" s="20">
         <v>44166</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J15" s="20">
         <v>44317</v>
@@ -12767,29 +12752,29 @@
     </row>
     <row r="16" spans="1:18" ht="176" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H16" s="20">
         <v>44166</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J16" s="20">
         <v>44317</v>
@@ -12815,29 +12800,29 @@
     </row>
     <row r="17" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H17" s="20">
         <v>44166</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J17" s="20">
         <v>44317</v>
@@ -12863,29 +12848,29 @@
     </row>
     <row r="18" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H18" s="20">
         <v>44166</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J18" s="20">
         <v>44317</v>
@@ -12911,29 +12896,29 @@
     </row>
     <row r="19" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H19" s="20">
         <v>44166</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J19" s="20">
         <v>44317</v>
@@ -12966,22 +12951,22 @@
         <v>115</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H20" s="20">
         <v>44166</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J20" s="20">
         <v>44317</v>
@@ -13014,22 +12999,22 @@
         <v>115</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H21" s="20">
         <v>44166</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J21" s="20">
         <v>44317</v>
@@ -13062,22 +13047,22 @@
         <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H22" s="20">
         <v>44166</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J22" s="20">
         <v>44317</v>
@@ -13103,29 +13088,29 @@
     </row>
     <row r="23" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H23" s="20">
         <v>44166</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J23" s="20">
         <v>44317</v>
@@ -13151,25 +13136,25 @@
     </row>
     <row r="24" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J24" s="18">
         <v>44242</v>
@@ -13181,7 +13166,7 @@
         <v>29</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N24" s="19" t="s">
         <v>29</v>
@@ -13195,31 +13180,31 @@
     </row>
     <row r="25" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H25" s="20">
         <v>44175</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J25" s="21">
         <v>44392</v>
@@ -13237,7 +13222,7 @@
         <v>30</v>
       </c>
       <c r="O25" s="22" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P25" s="16"/>
       <c r="Q25" s="16"/>
@@ -13245,31 +13230,31 @@
     </row>
     <row r="26" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H26" s="20">
         <v>44175</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J26" s="21">
         <v>44392</v>
@@ -13295,31 +13280,31 @@
     </row>
     <row r="27" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H27" s="20">
         <v>44175</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J27" s="21">
         <v>44392</v>
@@ -13345,31 +13330,31 @@
     </row>
     <row r="28" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H28" s="20">
         <v>44175</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J28" s="21">
         <v>44392</v>
@@ -13395,25 +13380,25 @@
     </row>
     <row r="29" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J29" s="20">
         <v>44347</v>
@@ -13425,7 +13410,7 @@
         <v>29</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N29" s="2" t="s">
         <v>30</v>
@@ -13439,29 +13424,29 @@
     </row>
     <row r="30" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H30" s="18">
         <v>44166</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J30" s="18">
         <v>44378</v>
@@ -13473,7 +13458,7 @@
         <v>29</v>
       </c>
       <c r="M30" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>30</v>
@@ -13491,25 +13476,25 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H31" s="18">
         <v>44166</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J31" s="24">
         <v>44348</v>
@@ -13521,7 +13506,7 @@
         <v>29</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>30</v>
@@ -13539,25 +13524,25 @@
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H32" s="18">
         <v>44166</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J32" s="18">
         <v>44317</v>
@@ -13569,7 +13554,7 @@
         <v>29</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N32" s="2" t="s">
         <v>30</v>
@@ -13587,25 +13572,25 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H33" s="18">
         <v>44166</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J33" s="18">
         <v>44317</v>
@@ -13617,7 +13602,7 @@
         <v>29</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N33" s="2" t="s">
         <v>30</v>
@@ -13631,29 +13616,29 @@
     </row>
     <row r="34" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H34" s="18">
         <v>44166</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J34" s="18">
         <v>44317</v>
@@ -13665,7 +13650,7 @@
         <v>29</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>30</v>
@@ -13679,29 +13664,29 @@
     </row>
     <row r="35" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H35" s="18">
         <v>44166</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J35" s="18">
         <v>44317</v>
@@ -13713,7 +13698,7 @@
         <v>29</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N35" s="2" t="s">
         <v>30</v>
@@ -13731,25 +13716,25 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H36" s="18">
         <v>44166</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J36" s="24">
         <v>44348</v>
@@ -13761,7 +13746,7 @@
         <v>29</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N36" s="2" t="s">
         <v>30</v>
@@ -13779,25 +13764,25 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H37" s="18">
         <v>44166</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J37" s="18">
         <v>44317</v>
@@ -13809,7 +13794,7 @@
         <v>29</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N37" s="2" t="s">
         <v>30</v>
@@ -13827,25 +13812,25 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H38" s="18">
         <v>44166</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J38" s="18">
         <v>44317</v>
@@ -13857,7 +13842,7 @@
         <v>29</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>30</v>
@@ -13871,29 +13856,29 @@
     </row>
     <row r="39" spans="1:18" ht="112" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H39" s="18">
         <v>44166</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J39" s="18">
         <v>44317</v>
@@ -13905,7 +13890,7 @@
         <v>29</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N39" s="2" t="s">
         <v>30</v>
@@ -13923,25 +13908,25 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H40" s="18">
         <v>44166</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J40" s="18">
         <v>44317</v>
@@ -13953,7 +13938,7 @@
         <v>29</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N40" s="2" t="s">
         <v>30</v>
@@ -13971,25 +13956,25 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H41" s="18">
         <v>44166</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J41" s="18">
         <v>44317</v>
@@ -14001,7 +13986,7 @@
         <v>29</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="N41" s="2" t="s">
         <v>30</v>
@@ -14015,31 +14000,31 @@
     </row>
     <row r="42" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="G42" s="25" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H42" s="26">
         <v>44136</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="J42" s="28">
         <v>44136</v>
@@ -14063,23 +14048,23 @@
     </row>
     <row r="43" spans="1:18" ht="80" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D43" s="29" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H43" s="24">
         <v>44180</v>
@@ -14099,7 +14084,7 @@
         <v>29</v>
       </c>
       <c r="O43" s="31" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P43" s="16"/>
       <c r="Q43" s="16"/>
@@ -14107,28 +14092,28 @@
     </row>
     <row r="44" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D44" s="29" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J44" s="25" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>29</v>
@@ -14137,7 +14122,7 @@
         <v>29</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N44" s="2" t="s">
         <v>30</v>
@@ -14151,28 +14136,28 @@
     </row>
     <row r="45" spans="1:18" ht="256" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>29</v>
@@ -14181,7 +14166,7 @@
         <v>29</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N45" s="2" t="s">
         <v>30</v>
@@ -14195,30 +14180,30 @@
     </row>
     <row r="46" spans="1:18" ht="208" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>29</v>
@@ -14227,7 +14212,7 @@
         <v>29</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>30</v>
@@ -14241,28 +14226,28 @@
     </row>
     <row r="47" spans="1:18" ht="240" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>29</v>
@@ -14271,7 +14256,7 @@
         <v>29</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N47" s="2" t="s">
         <v>30</v>
@@ -14285,28 +14270,28 @@
     </row>
     <row r="48" spans="1:18" ht="256" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>29</v>
@@ -14315,7 +14300,7 @@
         <v>29</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N48" s="2" t="s">
         <v>30</v>
@@ -14329,28 +14314,28 @@
     </row>
     <row r="49" spans="1:18" ht="256" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>29</v>
@@ -14359,7 +14344,7 @@
         <v>29</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>30</v>
@@ -14373,28 +14358,28 @@
     </row>
     <row r="50" spans="1:18" ht="272" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>29</v>
@@ -14403,7 +14388,7 @@
         <v>29</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N50" s="2" t="s">
         <v>30</v>
@@ -14417,28 +14402,28 @@
     </row>
     <row r="51" spans="1:18" ht="256" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K51" s="2" t="s">
         <v>29</v>
@@ -14447,7 +14432,7 @@
         <v>29</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N51" s="2" t="s">
         <v>30</v>
@@ -14461,28 +14446,28 @@
     </row>
     <row r="52" spans="1:18" ht="192" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>29</v>
@@ -14491,7 +14476,7 @@
         <v>29</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>30</v>
@@ -14505,25 +14490,25 @@
     </row>
     <row r="53" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
       <c r="I53" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J53" s="18">
         <v>44408</v>
@@ -14549,23 +14534,23 @@
     </row>
     <row r="54" spans="1:18" ht="192" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H54" s="18">
         <v>44200</v>
@@ -14593,25 +14578,25 @@
     </row>
     <row r="55" spans="1:18" ht="160" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="D55" s="34" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J55" s="18">
         <v>44408</v>
@@ -14637,28 +14622,28 @@
     </row>
     <row r="56" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E56" s="34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
       <c r="I56" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J56" s="34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>29</v>
@@ -14681,28 +14666,28 @@
     </row>
     <row r="57" spans="1:18" ht="144" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="F57" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
       <c r="I57" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J57" s="34" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>29</v>
@@ -14725,150 +14710,150 @@
     </row>
     <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H58" s="16"/>
       <c r="I58" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J58" s="36">
         <v>44211</v>
       </c>
       <c r="K58" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L58" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M58" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N58" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O58" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P58" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q58" s="16"/>
       <c r="R58" s="16"/>
     </row>
     <row r="59" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B59" s="16" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F59" s="35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G59" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J59" s="36">
         <v>44211</v>
       </c>
       <c r="K59" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L59" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M59" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N59" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P59" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q59" s="16"/>
       <c r="R59" s="16"/>
     </row>
     <row r="60" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F60" s="35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="G60" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H60" s="16"/>
       <c r="I60" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="J60" s="36">
         <v>44211</v>
       </c>
       <c r="K60" s="16" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L60" s="16" t="s">
         <v>30</v>
       </c>
       <c r="M60" s="16" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="N60" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="O60" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="P60" s="16" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="Q60" s="16"/>
       <c r="R60" s="16"/>
